--- a/Scoring_SHADOW/SCORES_Scenario_D_Summary.xlsx
+++ b/Scoring_SHADOW/SCORES_Scenario_D_Summary.xlsx
@@ -232,7 +232,7 @@
         <v>1.847029516740283</v>
       </c>
       <c r="F2" s="0">
-        <v>2.5878979515409322</v>
+        <v>1.401113478742974</v>
       </c>
       <c r="G2" s="0">
         <v>1.8303360445736594</v>
@@ -241,7 +241,7 @@
         <v>1.8850187114333132</v>
       </c>
       <c r="I2" s="0">
-        <v>0.86255442305804675</v>
+        <v>3.450217692232187</v>
       </c>
       <c r="J2" s="0">
         <v>2</v>
@@ -253,7 +253,7 @@
         <v>2.9318985297492084</v>
       </c>
       <c r="M2" s="0">
-        <v>0.49408149418767988</v>
+        <v>1.6399999999999999</v>
       </c>
       <c r="N2" s="0">
         <v>2</v>
@@ -265,10 +265,10 @@
         <v>1.1666666666666661</v>
       </c>
       <c r="Q2" s="0">
-        <v>2.4999451436181719</v>
+        <v>4.1490220578636219</v>
       </c>
       <c r="R2" s="0">
-        <v>0.026177794297065536</v>
+        <v>58.805031680629995</v>
       </c>
     </row>
     <row r="3">
@@ -288,7 +288,7 @@
         <v>1.8472102178788312</v>
       </c>
       <c r="F3" s="0">
-        <v>3.2720137954953073</v>
+        <v>1.7713272500476915</v>
       </c>
       <c r="G3" s="0">
         <v>1.6993120334076466</v>
@@ -297,7 +297,7 @@
         <v>1.7520557318395516</v>
       </c>
       <c r="I3" s="0">
-        <v>0.74432234707894762</v>
+        <v>2.9772893883157905</v>
       </c>
       <c r="J3" s="0">
         <v>2</v>
@@ -309,7 +309,7 @@
         <v>2.7054925393402201</v>
       </c>
       <c r="M3" s="0">
-        <v>0.41388904221644352</v>
+        <v>1.32768</v>
       </c>
       <c r="N3" s="0">
         <v>2</v>
@@ -321,10 +321,10 @@
         <v>1.333333333333333</v>
       </c>
       <c r="Q3" s="0">
-        <v>2.4204428393661392</v>
+        <v>3.8821679498452335</v>
       </c>
       <c r="R3" s="0">
-        <v>0.025517453878181773</v>
+        <v>55.391166842707129</v>
       </c>
     </row>
   </sheetData>
@@ -356,7 +356,7 @@
     <col min="15" max="15" width="22.28515625" customWidth="true"/>
     <col min="16" max="16" width="18.85546875" customWidth="true"/>
     <col min="17" max="17" width="26.5703125" customWidth="true"/>
-    <col min="18" max="18" width="13.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.85546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -432,7 +432,7 @@
         <v>1.7766313411934498</v>
       </c>
       <c r="F2" s="0">
-        <v>3.0215572771378434</v>
+        <v>1.7007227144310739</v>
       </c>
       <c r="G2" s="0">
         <v>1.6195063116649298</v>
@@ -441,7 +441,7 @@
         <v>1.7048094586050861</v>
       </c>
       <c r="I2" s="0">
-        <v>0.69023741959925222</v>
+        <v>2.7609496783970089</v>
       </c>
       <c r="J2" s="0">
         <v>2</v>
@@ -453,7 +453,7 @@
         <v>3.1992217068698499</v>
       </c>
       <c r="M2" s="0">
-        <v>0.76279681959474033</v>
+        <v>1.6399999999999999</v>
       </c>
       <c r="N2" s="0">
         <v>2</v>
@@ -465,10 +465,10 @@
         <v>1.333333333333333</v>
       </c>
       <c r="Q2" s="0">
-        <v>6.3679269508601042</v>
+        <v>6.8454665325944557</v>
       </c>
       <c r="R2" s="0">
-        <v>0.06798165361694479</v>
+        <v>102.83463067006883</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         <v>1.842949656974374</v>
       </c>
       <c r="F3" s="0">
-        <v>3.3526140380694396</v>
+        <v>1.8191566033190116</v>
       </c>
       <c r="G3" s="0">
         <v>1.6505252683547511</v>
@@ -497,7 +497,7 @@
         <v>1.6173556733206282</v>
       </c>
       <c r="I3" s="0">
-        <v>0.66737160168315224</v>
+        <v>2.669486406732609</v>
       </c>
       <c r="J3" s="0">
         <v>1</v>
@@ -509,7 +509,7 @@
         <v>1.0952725269649752</v>
       </c>
       <c r="M3" s="0">
-        <v>0.52231954461556007</v>
+        <v>1.4096</v>
       </c>
       <c r="N3" s="0">
         <v>2</v>
@@ -521,10 +521,10 @@
         <v>1.333333333333333</v>
       </c>
       <c r="Q3" s="0">
-        <v>5.5714084755205207</v>
+        <v>7.5178666661555438</v>
       </c>
       <c r="R3" s="0">
-        <v>0.021845322423937257</v>
+        <v>39.986612511159351</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
         <v>1.8504517617249969</v>
       </c>
       <c r="F4" s="0">
-        <v>3.1572968759720679</v>
+        <v>1.7062303061760582</v>
       </c>
       <c r="G4" s="0">
         <v>1.6612955128853528</v>
@@ -553,7 +553,7 @@
         <v>1.8095372179929097</v>
       </c>
       <c r="I4" s="0">
-        <v>0.75154401516266634</v>
+        <v>3.0061760606506653</v>
       </c>
       <c r="J4" s="0">
         <v>2</v>
@@ -565,7 +565,7 @@
         <v>3.9999999997484084</v>
       </c>
       <c r="M4" s="0">
-        <v>0.74673928566757419</v>
+        <v>1.512</v>
       </c>
       <c r="N4" s="0">
         <v>2</v>
@@ -577,10 +577,10 @@
         <v>1.333333333333333</v>
       </c>
       <c r="Q4" s="0">
-        <v>6.9374459250519705</v>
+        <v>7.0234809122846613</v>
       </c>
       <c r="R4" s="0">
-        <v>0.1053536109616247</v>
+        <v>144.10015947847046</v>
       </c>
     </row>
     <row r="5">
@@ -600,7 +600,7 @@
         <v>1.8213522513837095</v>
       </c>
       <c r="F5" s="0">
-        <v>3.0387430320267144</v>
+        <v>1.6683994157188069</v>
       </c>
       <c r="G5" s="0">
         <v>1.7422016860152325</v>
@@ -609,7 +609,7 @@
         <v>1.7983655552796343</v>
       </c>
       <c r="I5" s="0">
-        <v>0.78327887561997467</v>
+        <v>3.1331155024798987</v>
       </c>
       <c r="J5" s="0">
         <v>2</v>
@@ -621,7 +621,7 @@
         <v>3.9999999997484084</v>
       </c>
       <c r="M5" s="0">
-        <v>0.38317564228224482</v>
+        <v>1.512</v>
       </c>
       <c r="N5" s="0">
         <v>2</v>
@@ -633,10 +633,10 @@
         <v>1.333333333333333</v>
       </c>
       <c r="Q5" s="0">
-        <v>3.780666336948618</v>
+        <v>7.4591999995339853</v>
       </c>
       <c r="R5" s="0">
-        <v>0.057591543011609556</v>
+        <v>155.96554877832548</v>
       </c>
     </row>
     <row r="6">
@@ -656,7 +656,7 @@
         <v>1.6274283316248148</v>
       </c>
       <c r="F6" s="0">
-        <v>3.2034753813934049</v>
+        <v>1.9684279296004845</v>
       </c>
       <c r="G6" s="0">
         <v>1.6930561993502979</v>
@@ -665,7 +665,7 @@
         <v>1.7151466618786746</v>
       </c>
       <c r="I6" s="0">
-        <v>0.72595992217216487</v>
+        <v>2.9038396886886595</v>
       </c>
       <c r="J6" s="0">
         <v>2</v>
@@ -677,7 +677,7 @@
         <v>3.9999999997484084</v>
       </c>
       <c r="M6" s="0">
-        <v>0.35918561179346536</v>
+        <v>1.4096</v>
       </c>
       <c r="N6" s="0">
         <v>2</v>
@@ -689,10 +689,10 @@
         <v>1.5</v>
       </c>
       <c r="Q6" s="0">
-        <v>3.7540673934504358</v>
+        <v>7.366293671098556</v>
       </c>
       <c r="R6" s="0">
-        <v>0.055874812018219894</v>
+        <v>168.42291333089986</v>
       </c>
     </row>
     <row r="7">
@@ -712,7 +712,7 @@
         <v>1.7852719686218976</v>
       </c>
       <c r="F7" s="0">
-        <v>3.3550205000332567</v>
+        <v>1.8792769723612994</v>
       </c>
       <c r="G7" s="0">
         <v>1.6577800127672397</v>
@@ -721,7 +721,7 @@
         <v>1.8020182628699213</v>
       </c>
       <c r="I7" s="0">
-        <v>0.74683746470682433</v>
+        <v>2.9873498588272973</v>
       </c>
       <c r="J7" s="0">
         <v>2</v>
@@ -733,7 +733,7 @@
         <v>3.9935265201015788</v>
       </c>
       <c r="M7" s="0">
-        <v>0.35253052492981035</v>
+        <v>1.4096</v>
       </c>
       <c r="N7" s="0">
         <v>2</v>
@@ -745,10 +745,10 @@
         <v>1.333333333333333</v>
       </c>
       <c r="Q7" s="0">
-        <v>3.4783011790901548</v>
+        <v>6.9540266662322123</v>
       </c>
       <c r="R7" s="0">
-        <v>0.055688435054663164</v>
+        <v>155.90850388779998</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +848,7 @@
     <col min="15" max="15" width="22.28515625" customWidth="true"/>
     <col min="16" max="16" width="18.85546875" customWidth="true"/>
     <col min="17" max="17" width="26.5703125" customWidth="true"/>
-    <col min="18" max="18" width="13.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.85546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -924,7 +924,7 @@
         <v>1.5859032636385386</v>
       </c>
       <c r="F2" s="0">
-        <v>4.0020221998372883</v>
+        <v>2.523497045245652</v>
       </c>
       <c r="G2" s="0">
         <v>1.5774672271040367</v>
@@ -933,7 +933,7 @@
         <v>1.7602671994268722</v>
       </c>
       <c r="I2" s="0">
-        <v>0.69419095451052404</v>
+        <v>2.7767638180420962</v>
       </c>
       <c r="J2" s="0">
         <v>2</v>
@@ -945,7 +945,7 @@
         <v>3.2035742750534291</v>
       </c>
       <c r="M2" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" s="0">
         <v>2</v>
@@ -960,7 +960,7 @@
         <v>9.8856506360271155</v>
       </c>
       <c r="R2" s="0">
-        <v>0.14077271356856982</v>
+        <v>221.91251634982279</v>
       </c>
     </row>
     <row r="3">
@@ -980,7 +980,7 @@
         <v>1.9129316988156646</v>
       </c>
       <c r="F3" s="0">
-        <v>2.6985135327725116</v>
+        <v>1.410669045028224</v>
       </c>
       <c r="G3" s="0">
         <v>1.8938196994959853</v>
@@ -989,7 +989,7 @@
         <v>1.8711430720118034</v>
       </c>
       <c r="I3" s="0">
-        <v>0.88590190258784707</v>
+        <v>3.5436076103513883</v>
       </c>
       <c r="J3" s="0">
         <v>1.833333333333333</v>
@@ -1001,7 +1001,7 @@
         <v>2.383095872118087</v>
       </c>
       <c r="M3" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" s="0">
         <v>2</v>
@@ -1016,7 +1016,7 @@
         <v>8.6333333327939617</v>
       </c>
       <c r="R3" s="0">
-        <v>0.078695561984175461</v>
+        <v>102.84680058480068</v>
       </c>
     </row>
     <row r="4">
@@ -1036,7 +1036,7 @@
         <v>1.6960445724076798</v>
       </c>
       <c r="F4" s="0">
-        <v>4.2773113498868947</v>
+        <v>2.5219333379988278</v>
       </c>
       <c r="G4" s="0">
         <v>1.6096500551295876</v>
@@ -1045,7 +1045,7 @@
         <v>1.8110394309244051</v>
       </c>
       <c r="I4" s="0">
-        <v>0.72878492995733135</v>
+        <v>2.9151397198293254</v>
       </c>
       <c r="J4" s="0">
         <v>2</v>
@@ -1057,7 +1057,7 @@
         <v>3.9999999997484084</v>
       </c>
       <c r="M4" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" s="0">
         <v>2</v>
@@ -1072,7 +1072,7 @@
         <v>11.099999999306529</v>
       </c>
       <c r="R4" s="0">
-        <v>0.22144873330418211</v>
+        <v>326.4193891287548</v>
       </c>
     </row>
     <row r="5">
@@ -1092,7 +1092,7 @@
         <v>1.7634407965166141</v>
       </c>
       <c r="F5" s="0">
-        <v>3.1443638335268709</v>
+        <v>1.7830844334201874</v>
       </c>
       <c r="G5" s="0">
         <v>1.6670235502972564</v>
@@ -1101,7 +1101,7 @@
         <v>1.9466363057378857</v>
       </c>
       <c r="I5" s="0">
-        <v>0.8112721413821764</v>
+        <v>3.2450885655287056</v>
       </c>
       <c r="J5" s="0">
         <v>2</v>
@@ -1113,7 +1113,7 @@
         <v>3.4787892327919372</v>
       </c>
       <c r="M5" s="0">
-        <v>0.47919463899490855</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="N5" s="0">
         <v>2</v>
@@ -1125,10 +1125,10 @@
         <v>1.333333333333333</v>
       </c>
       <c r="Q5" s="0">
-        <v>4.2108007002318226</v>
+        <v>7.9085205088216899</v>
       </c>
       <c r="R5" s="0">
-        <v>0.059787740594528023</v>
+        <v>159.19221484325089</v>
       </c>
     </row>
     <row r="6">
@@ -1148,7 +1148,7 @@
         <v>1.7576436593067393</v>
       </c>
       <c r="F6" s="0">
-        <v>3.835485613290404</v>
+        <v>2.1821747502580928</v>
       </c>
       <c r="G6" s="0">
         <v>1.6457717974054187</v>
@@ -1157,7 +1157,7 @@
         <v>1.8400732218908698</v>
       </c>
       <c r="I6" s="0">
-        <v>0.75708515343722915</v>
+        <v>3.0283406137489166</v>
       </c>
       <c r="J6" s="0">
         <v>2</v>
@@ -1169,7 +1169,7 @@
         <v>3.9999999997484084</v>
       </c>
       <c r="M6" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" s="0">
         <v>2</v>
@@ -1184,7 +1184,7 @@
         <v>9.8856506360271155</v>
       </c>
       <c r="R6" s="0">
-        <v>0.18371741240895803</v>
+        <v>261.312085979676</v>
       </c>
     </row>
     <row r="7">
@@ -1204,7 +1204,7 @@
         <v>1.8463238765588386</v>
       </c>
       <c r="F7" s="0">
-        <v>3.4152409490007263</v>
+        <v>1.8497518189311515</v>
       </c>
       <c r="G7" s="0">
         <v>1.7426252068619044</v>
@@ -1213,7 +1213,7 @@
         <v>1.8118859047169829</v>
       </c>
       <c r="I7" s="0">
-        <v>0.78935951237940028</v>
+        <v>3.1574380495176011</v>
       </c>
       <c r="J7" s="0">
         <v>2</v>
@@ -1225,7 +1225,7 @@
         <v>3.9999999997484084</v>
       </c>
       <c r="M7" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="0">
         <v>2</v>
@@ -1240,7 +1240,7 @@
         <v>9.8666666660502447</v>
       </c>
       <c r="R7" s="0">
-        <v>0.17023412634191412</v>
+        <v>230.50415003460131</v>
       </c>
     </row>
   </sheetData>
